--- a/成绩.xlsx
+++ b/成绩.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>cell_01</t>
   </si>
@@ -109,6 +109,9 @@
     <t>3120301223</t>
   </si>
   <si>
+    <t>3120332025</t>
+  </si>
+  <si>
     <t>3120305660</t>
   </si>
   <si>
@@ -133,6 +136,9 @@
     <t>3120101202</t>
   </si>
   <si>
+    <t>3120101127</t>
+  </si>
+  <si>
     <t>3120101238</t>
   </si>
   <si>
@@ -253,6 +259,9 @@
     <t>3120305456</t>
   </si>
   <si>
+    <t>3120305454</t>
+  </si>
+  <si>
     <t>3120101095</t>
   </si>
   <si>
@@ -271,6 +280,9 @@
     <t>3120101211</t>
   </si>
   <si>
+    <t>3120101208</t>
+  </si>
+  <si>
     <t>3120332034</t>
   </si>
   <si>
@@ -295,16 +307,10 @@
     <t>3120109017</t>
   </si>
   <si>
-    <t>3120101208</t>
-  </si>
-  <si>
     <t>20118038</t>
   </si>
   <si>
-    <t>3120305454</t>
-  </si>
-  <si>
-    <t>3120101127</t>
+    <t>3120303087</t>
   </si>
 </sst>
 </file>
@@ -662,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -814,6 +820,18 @@
       <c r="M3">
         <v>204</v>
       </c>
+      <c r="N3">
+        <v>19</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <v>191</v>
+      </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
@@ -937,6 +955,18 @@
       <c r="M6">
         <v>345</v>
       </c>
+      <c r="N6">
+        <v>35</v>
+      </c>
+      <c r="O6">
+        <v>34</v>
+      </c>
+      <c r="P6">
+        <v>32</v>
+      </c>
+      <c r="Q6">
+        <v>340</v>
+      </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
@@ -1096,10 +1126,10 @@
         <v>65</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I10">
-        <v>58</v>
+        <v>220</v>
       </c>
       <c r="J10">
         <v>53</v>
@@ -1207,6 +1237,18 @@
       <c r="M12">
         <v>514</v>
       </c>
+      <c r="N12">
+        <v>23</v>
+      </c>
+      <c r="O12">
+        <v>23</v>
+      </c>
+      <c r="P12">
+        <v>22</v>
+      </c>
+      <c r="Q12">
+        <v>304</v>
+      </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
@@ -1248,6 +1290,18 @@
       <c r="M13">
         <v>212</v>
       </c>
+      <c r="N13">
+        <v>209</v>
+      </c>
+      <c r="O13">
+        <v>209</v>
+      </c>
+      <c r="P13">
+        <v>192</v>
+      </c>
+      <c r="Q13">
+        <v>282</v>
+      </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
@@ -1360,52 +1414,52 @@
         <v>31</v>
       </c>
       <c r="B16">
-        <v>69</v>
+        <v>280</v>
       </c>
       <c r="C16">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="D16">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="E16">
-        <v>114</v>
+        <v>307</v>
       </c>
       <c r="F16">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G16">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H16">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I16">
-        <v>399</v>
+        <v>303</v>
       </c>
       <c r="J16">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="K16">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="L16">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="M16">
-        <v>553</v>
+        <v>344</v>
       </c>
       <c r="N16">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="O16">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="P16">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="Q16">
-        <v>111</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1413,40 +1467,52 @@
         <v>32</v>
       </c>
       <c r="B17">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="C17">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="D17">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="E17">
-        <v>363</v>
+        <v>114</v>
       </c>
       <c r="F17">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G17">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H17">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I17">
-        <v>273</v>
+        <v>399</v>
       </c>
       <c r="J17">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L17">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M17">
-        <v>497</v>
+        <v>553</v>
+      </c>
+      <c r="N17">
+        <v>20</v>
+      </c>
+      <c r="O17">
+        <v>12</v>
+      </c>
+      <c r="P17">
+        <v>10</v>
+      </c>
+      <c r="Q17">
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,52 +1520,52 @@
         <v>33</v>
       </c>
       <c r="B18">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="C18">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="E18">
-        <v>192</v>
+        <v>363</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G18">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H18">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I18">
-        <v>201</v>
+        <v>273</v>
       </c>
       <c r="J18">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="K18">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="M18">
-        <v>202</v>
+        <v>497</v>
       </c>
       <c r="N18">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="O18">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="P18">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="Q18">
-        <v>203</v>
+        <v>990</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1507,40 +1573,52 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E19">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="F19">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G19">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I19">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="J19">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K19">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L19">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>145</v>
+        <v>202</v>
+      </c>
+      <c r="N19">
+        <v>28</v>
+      </c>
+      <c r="O19">
+        <v>28</v>
+      </c>
+      <c r="P19">
+        <v>26</v>
+      </c>
+      <c r="Q19">
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1548,40 +1626,52 @@
         <v>35</v>
       </c>
       <c r="B20">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C20">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D20">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E20">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I20">
-        <v>173</v>
+        <v>271</v>
       </c>
       <c r="J20">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>55</v>
+        <v>282</v>
+      </c>
+      <c r="N20">
+        <v>86</v>
+      </c>
+      <c r="O20">
+        <v>80</v>
+      </c>
+      <c r="P20">
+        <v>76</v>
+      </c>
+      <c r="Q20">
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1589,40 +1679,52 @@
         <v>36</v>
       </c>
       <c r="B21">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C21">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D21">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E21">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="F21">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="H21">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>338</v>
+        <v>173</v>
       </c>
       <c r="J21">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="K21">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="L21">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="M21">
-        <v>432</v>
+        <v>55</v>
+      </c>
+      <c r="N21">
+        <v>15</v>
+      </c>
+      <c r="O21">
+        <v>15</v>
+      </c>
+      <c r="P21">
+        <v>13</v>
+      </c>
+      <c r="Q21">
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1630,40 +1732,52 @@
         <v>37</v>
       </c>
       <c r="B22">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C22">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D22">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E22">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="F22">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="G22">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="H22">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="I22">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="J22">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="K22">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c r="L22">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="M22">
-        <v>387</v>
+        <v>432</v>
+      </c>
+      <c r="N22">
+        <v>53</v>
+      </c>
+      <c r="O22">
+        <v>43</v>
+      </c>
+      <c r="P22">
+        <v>42</v>
+      </c>
+      <c r="Q22">
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1671,40 +1785,40 @@
         <v>38</v>
       </c>
       <c r="B23">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C23">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D23">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="F23">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="G23">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="H23">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="I23">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="J23">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="K23">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="L23">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="M23">
-        <v>206</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1712,52 +1826,52 @@
         <v>39</v>
       </c>
       <c r="B24">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C24">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D24">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E24">
-        <v>514</v>
+        <v>153</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I24">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="M24">
-        <v>308</v>
+        <v>206</v>
       </c>
       <c r="N24">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O24">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P24">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Q24">
-        <v>244</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1765,40 +1879,52 @@
         <v>40</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D25">
         <v>22</v>
       </c>
       <c r="E25">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="F25">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G25">
+        <v>34</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>229</v>
+      </c>
+      <c r="J25">
+        <v>29</v>
+      </c>
+      <c r="K25">
+        <v>29</v>
+      </c>
+      <c r="L25">
+        <v>25</v>
+      </c>
+      <c r="M25">
+        <v>177</v>
+      </c>
+      <c r="N25">
+        <v>36</v>
+      </c>
+      <c r="O25">
+        <v>36</v>
+      </c>
+      <c r="P25">
         <v>35</v>
       </c>
-      <c r="H25">
-        <v>34</v>
-      </c>
-      <c r="I25">
-        <v>249</v>
-      </c>
-      <c r="J25">
-        <v>24</v>
-      </c>
-      <c r="K25">
-        <v>22</v>
-      </c>
-      <c r="L25">
-        <v>21</v>
-      </c>
-      <c r="M25">
-        <v>262</v>
+      <c r="Q25">
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1806,52 +1932,52 @@
         <v>41</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="E26">
-        <v>172</v>
+        <v>514</v>
       </c>
       <c r="F26">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>308</v>
+      </c>
+      <c r="N26">
         <v>8</v>
       </c>
-      <c r="K26">
+      <c r="O26">
         <v>8</v>
       </c>
-      <c r="L26">
-        <v>7</v>
-      </c>
-      <c r="M26">
-        <v>202</v>
-      </c>
-      <c r="N26">
-        <v>4</v>
-      </c>
-      <c r="O26">
-        <v>4</v>
-      </c>
       <c r="P26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q26">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1859,40 +1985,52 @@
         <v>42</v>
       </c>
       <c r="B27">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="C27">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="D27">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E27">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="F27">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G27">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I27">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="J27">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="K27">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="L27">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>214</v>
+        <v>262</v>
+      </c>
+      <c r="N27">
+        <v>30</v>
+      </c>
+      <c r="O27">
+        <v>30</v>
+      </c>
+      <c r="P27">
+        <v>29</v>
+      </c>
+      <c r="Q27">
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1900,69 +2038,105 @@
         <v>43</v>
       </c>
       <c r="B28">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E28">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="F28">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G28">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H28">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I28">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M28">
-        <v>66</v>
+        <v>202</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <v>4</v>
+      </c>
+      <c r="P28">
+        <v>4</v>
+      </c>
+      <c r="Q28">
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="B29">
+        <v>90</v>
+      </c>
+      <c r="C29">
+        <v>90</v>
+      </c>
+      <c r="D29">
+        <v>87</v>
+      </c>
+      <c r="E29">
+        <v>277</v>
+      </c>
       <c r="F29">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G29">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H29">
         <v>61</v>
       </c>
       <c r="I29">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="J29">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="K29">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="L29">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="M29">
-        <v>470</v>
+        <v>214</v>
+      </c>
+      <c r="N29">
+        <v>46</v>
+      </c>
+      <c r="O29">
+        <v>46</v>
+      </c>
+      <c r="P29">
+        <v>43</v>
+      </c>
+      <c r="Q29">
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1970,52 +2144,40 @@
         <v>45</v>
       </c>
       <c r="B30">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="C30">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="F30">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="G30">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="H30">
+        <v>21</v>
+      </c>
+      <c r="I30">
+        <v>106</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
         <v>66</v>
-      </c>
-      <c r="I30">
-        <v>339</v>
-      </c>
-      <c r="J30">
-        <v>159</v>
-      </c>
-      <c r="K30">
-        <v>159</v>
-      </c>
-      <c r="L30">
-        <v>154</v>
-      </c>
-      <c r="M30">
-        <v>292</v>
-      </c>
-      <c r="N30">
-        <v>22</v>
-      </c>
-      <c r="O30">
-        <v>22</v>
-      </c>
-      <c r="P30">
-        <v>15</v>
-      </c>
-      <c r="Q30">
-        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2023,52 +2185,40 @@
         <v>46</v>
       </c>
       <c r="B31">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="C31">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="D31">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="E31">
-        <v>363</v>
+        <v>118</v>
       </c>
       <c r="F31">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="G31">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="H31">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I31">
-        <v>370</v>
+        <v>191</v>
       </c>
       <c r="J31">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K31">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="L31">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="M31">
-        <v>522</v>
-      </c>
-      <c r="N31">
-        <v>28</v>
-      </c>
-      <c r="O31">
-        <v>28</v>
-      </c>
-      <c r="P31">
-        <v>27</v>
-      </c>
-      <c r="Q31">
-        <v>212</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2076,52 +2226,52 @@
         <v>47</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="E32">
-        <v>201</v>
+        <v>309</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="I32">
-        <v>268</v>
+        <v>339</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="K32">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>154</v>
       </c>
       <c r="M32">
-        <v>204</v>
+        <v>292</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="O32">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="P32">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="Q32">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2129,52 +2279,52 @@
         <v>48</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="D33">
+        <v>137</v>
+      </c>
+      <c r="E33">
+        <v>363</v>
+      </c>
+      <c r="F33">
+        <v>37</v>
+      </c>
+      <c r="G33">
+        <v>34</v>
+      </c>
+      <c r="H33">
         <v>31</v>
       </c>
-      <c r="E33">
-        <v>219</v>
-      </c>
-      <c r="F33">
-        <v>29</v>
-      </c>
-      <c r="G33">
-        <v>29</v>
-      </c>
-      <c r="H33">
+      <c r="I33">
+        <v>370</v>
+      </c>
+      <c r="J33">
+        <v>113</v>
+      </c>
+      <c r="K33">
+        <v>94</v>
+      </c>
+      <c r="L33">
+        <v>93</v>
+      </c>
+      <c r="M33">
+        <v>522</v>
+      </c>
+      <c r="N33">
         <v>28</v>
       </c>
-      <c r="I33">
-        <v>251</v>
-      </c>
-      <c r="J33">
-        <v>82</v>
-      </c>
-      <c r="K33">
-        <v>82</v>
-      </c>
-      <c r="L33">
-        <v>81</v>
-      </c>
-      <c r="M33">
-        <v>416</v>
-      </c>
-      <c r="N33">
-        <v>26</v>
-      </c>
       <c r="O33">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P33">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q33">
-        <v>261</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2182,28 +2332,52 @@
         <v>49</v>
       </c>
       <c r="B34">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E34">
-        <v>26</v>
+        <v>201</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>268</v>
       </c>
       <c r="J34">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K34">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="L34">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>80</v>
+        <v>204</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+      <c r="P34">
+        <v>2</v>
+      </c>
+      <c r="Q34">
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2211,40 +2385,52 @@
         <v>50</v>
       </c>
       <c r="B35">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D35">
+        <v>31</v>
+      </c>
+      <c r="E35">
+        <v>219</v>
+      </c>
+      <c r="F35">
+        <v>29</v>
+      </c>
+      <c r="G35">
+        <v>29</v>
+      </c>
+      <c r="H35">
+        <v>28</v>
+      </c>
+      <c r="I35">
+        <v>251</v>
+      </c>
+      <c r="J35">
+        <v>82</v>
+      </c>
+      <c r="K35">
+        <v>82</v>
+      </c>
+      <c r="L35">
+        <v>81</v>
+      </c>
+      <c r="M35">
+        <v>416</v>
+      </c>
+      <c r="N35">
         <v>26</v>
       </c>
-      <c r="E35">
-        <v>225</v>
-      </c>
-      <c r="F35">
-        <v>21</v>
-      </c>
-      <c r="G35">
-        <v>21</v>
-      </c>
-      <c r="H35">
-        <v>20</v>
-      </c>
-      <c r="I35">
-        <v>188</v>
-      </c>
-      <c r="J35">
-        <v>5</v>
-      </c>
-      <c r="K35">
-        <v>5</v>
-      </c>
-      <c r="L35">
-        <v>4</v>
-      </c>
-      <c r="M35">
-        <v>186</v>
+      <c r="O35">
+        <v>26</v>
+      </c>
+      <c r="P35">
+        <v>25</v>
+      </c>
+      <c r="Q35">
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2252,40 +2438,52 @@
         <v>51</v>
       </c>
       <c r="B36">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="C36">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="D36">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="E36">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="F36">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G36">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H36">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I36">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="J36">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="K36">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="L36">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="M36">
-        <v>441</v>
+        <v>355</v>
+      </c>
+      <c r="N36">
+        <v>28</v>
+      </c>
+      <c r="O36">
+        <v>27</v>
+      </c>
+      <c r="P36">
+        <v>23</v>
+      </c>
+      <c r="Q36">
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2293,52 +2491,52 @@
         <v>52</v>
       </c>
       <c r="B37">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C37">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D37">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E37">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="F37">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="G37">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H37">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I37">
-        <v>313</v>
+        <v>206</v>
       </c>
       <c r="J37">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="K37">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="L37">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="M37">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="N37">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="O37">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="P37">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="Q37">
-        <v>340</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2346,40 +2544,40 @@
         <v>53</v>
       </c>
       <c r="B38">
+        <v>87</v>
+      </c>
+      <c r="C38">
+        <v>87</v>
+      </c>
+      <c r="D38">
+        <v>84</v>
+      </c>
+      <c r="E38">
+        <v>172</v>
+      </c>
+      <c r="F38">
+        <v>19</v>
+      </c>
+      <c r="G38">
+        <v>19</v>
+      </c>
+      <c r="H38">
+        <v>18</v>
+      </c>
+      <c r="I38">
         <v>204</v>
       </c>
-      <c r="C38">
-        <v>204</v>
-      </c>
-      <c r="D38">
-        <v>197</v>
-      </c>
-      <c r="E38">
-        <v>411</v>
-      </c>
-      <c r="F38">
-        <v>43</v>
-      </c>
-      <c r="G38">
-        <v>43</v>
-      </c>
-      <c r="H38">
-        <v>39</v>
-      </c>
-      <c r="I38">
-        <v>264</v>
-      </c>
       <c r="J38">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="K38">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="L38">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="M38">
-        <v>213</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2387,81 +2585,105 @@
         <v>54</v>
       </c>
       <c r="B39">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C39">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D39">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E39">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="F39">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G39">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H39">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I39">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="J39">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L39">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M39">
-        <v>317</v>
+        <v>123</v>
+      </c>
+      <c r="N39">
+        <v>81</v>
+      </c>
+      <c r="O39">
+        <v>81</v>
+      </c>
+      <c r="P39">
+        <v>69</v>
+      </c>
+      <c r="Q39">
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B40">
+        <v>204</v>
+      </c>
+      <c r="C40">
+        <v>204</v>
+      </c>
+      <c r="D40">
+        <v>197</v>
+      </c>
+      <c r="E40">
+        <v>411</v>
+      </c>
       <c r="F40">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G40">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H40">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I40">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="J40">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="M40">
-        <v>112</v>
+        <v>213</v>
       </c>
       <c r="N40">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="O40">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="P40">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="Q40">
-        <v>201</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2469,81 +2691,81 @@
         <v>56</v>
       </c>
       <c r="B41">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C41">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D41">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E41">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="F41">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="G41">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="H41">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="I41">
-        <v>119</v>
+        <v>299</v>
       </c>
       <c r="J41">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="K41">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="L41">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M41">
-        <v>153</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B42">
-        <v>82</v>
-      </c>
-      <c r="C42">
-        <v>82</v>
-      </c>
-      <c r="D42">
-        <v>78</v>
-      </c>
-      <c r="E42">
-        <v>133</v>
-      </c>
       <c r="F42">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G42">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H42">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="I42">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="J42">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="K42">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="M42">
-        <v>270</v>
+        <v>112</v>
+      </c>
+      <c r="N42">
+        <v>7</v>
+      </c>
+      <c r="O42">
+        <v>7</v>
+      </c>
+      <c r="P42">
+        <v>5</v>
+      </c>
+      <c r="Q42">
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2551,40 +2773,52 @@
         <v>58</v>
       </c>
       <c r="B43">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="C43">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="D43">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="E43">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F43">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="G43">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="H43">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I43">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="J43">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="K43">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L43">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="M43">
-        <v>123</v>
+        <v>215</v>
+      </c>
+      <c r="N43">
+        <v>22</v>
+      </c>
+      <c r="O43">
+        <v>22</v>
+      </c>
+      <c r="P43">
+        <v>17</v>
+      </c>
+      <c r="Q43">
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2592,52 +2826,52 @@
         <v>59</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E44">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="F44">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G44">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="H44">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I44">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="J44">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="K44">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="M44">
-        <v>103</v>
+        <v>270</v>
       </c>
       <c r="N44">
+        <v>32</v>
+      </c>
+      <c r="O44">
+        <v>32</v>
+      </c>
+      <c r="P44">
         <v>30</v>
       </c>
-      <c r="O44">
-        <v>30</v>
-      </c>
-      <c r="P44">
-        <v>29</v>
-      </c>
       <c r="Q44">
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2645,40 +2879,52 @@
         <v>60</v>
       </c>
       <c r="B45">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="C45">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="D45">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="E45">
-        <v>423</v>
+        <v>324</v>
       </c>
       <c r="F45">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="G45">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="H45">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="I45">
-        <v>516</v>
+        <v>271</v>
       </c>
       <c r="J45">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="K45">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="L45">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>473</v>
+        <v>163</v>
+      </c>
+      <c r="N45">
+        <v>5</v>
+      </c>
+      <c r="O45">
+        <v>5</v>
+      </c>
+      <c r="P45">
+        <v>4</v>
+      </c>
+      <c r="Q45">
+        <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2686,40 +2932,52 @@
         <v>61</v>
       </c>
       <c r="B46">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="C46">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="D46">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E46">
-        <v>239</v>
+        <v>396</v>
       </c>
       <c r="F46">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="G46">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="J46">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="K46">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="L46">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="M46">
-        <v>93</v>
+        <v>521</v>
+      </c>
+      <c r="N46">
+        <v>30</v>
+      </c>
+      <c r="O46">
+        <v>30</v>
+      </c>
+      <c r="P46">
+        <v>29</v>
+      </c>
+      <c r="Q46">
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2727,28 +2985,52 @@
         <v>62</v>
       </c>
       <c r="B47">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="C47">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="E47">
-        <v>147</v>
+        <v>423</v>
+      </c>
+      <c r="F47">
+        <v>109</v>
+      </c>
+      <c r="G47">
+        <v>109</v>
+      </c>
+      <c r="H47">
+        <v>106</v>
+      </c>
+      <c r="I47">
+        <v>516</v>
       </c>
       <c r="J47">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="K47">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="L47">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="M47">
-        <v>57</v>
+        <v>473</v>
+      </c>
+      <c r="N47">
+        <v>121</v>
+      </c>
+      <c r="O47">
+        <v>119</v>
+      </c>
+      <c r="P47">
+        <v>117</v>
+      </c>
+      <c r="Q47">
+        <v>1461</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2756,52 +3038,52 @@
         <v>63</v>
       </c>
       <c r="B48">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="C48">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="D48">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="E48">
-        <v>327</v>
+        <v>239</v>
       </c>
       <c r="F48">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="G48">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="H48">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="K48">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="L48">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="M48">
-        <v>206</v>
+        <v>93</v>
       </c>
       <c r="N48">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="O48">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="P48">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="Q48">
-        <v>212</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -2809,40 +3091,28 @@
         <v>64</v>
       </c>
       <c r="B49">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C49">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D49">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E49">
-        <v>231</v>
-      </c>
-      <c r="F49">
-        <v>26</v>
-      </c>
-      <c r="G49">
-        <v>25</v>
-      </c>
-      <c r="H49">
-        <v>23</v>
-      </c>
-      <c r="I49">
-        <v>250</v>
+        <v>147</v>
       </c>
       <c r="J49">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="K49">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="L49">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="M49">
-        <v>459</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -2850,52 +3120,52 @@
         <v>65</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="C50">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="D50">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="E50">
-        <v>139</v>
+        <v>327</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="I50">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="J50">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="M50">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="N50">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="O50">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="P50">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="Q50">
-        <v>7683</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -2903,52 +3173,52 @@
         <v>66</v>
       </c>
       <c r="B51">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C51">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E51">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F51">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G51">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H51">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I51">
-        <v>411</v>
+        <v>250</v>
       </c>
       <c r="J51">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="K51">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="L51">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="M51">
-        <v>233</v>
+        <v>459</v>
       </c>
       <c r="N51">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="O51">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="P51">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="Q51">
-        <v>304</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -2956,52 +3226,52 @@
         <v>67</v>
       </c>
       <c r="B52">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D52">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="E52">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="F52">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="G52">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="H52">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="J52">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="K52">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="L52">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="M52">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="N52">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="O52">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="P52">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="Q52">
-        <v>334</v>
+        <v>7683</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3009,52 +3279,52 @@
         <v>68</v>
       </c>
       <c r="B53">
-        <v>244</v>
+        <v>30</v>
       </c>
       <c r="C53">
-        <v>213</v>
+        <v>30</v>
       </c>
       <c r="D53">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="E53">
-        <v>353</v>
+        <v>223</v>
       </c>
       <c r="F53">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="G53">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="H53">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="I53">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="J53">
-        <v>198</v>
+        <v>63</v>
       </c>
       <c r="K53">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="L53">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c r="M53">
-        <v>521</v>
+        <v>233</v>
       </c>
       <c r="N53">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="O53">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="P53">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="Q53">
-        <v>516</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3062,40 +3332,52 @@
         <v>69</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="E54">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c r="F54">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="G54">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="I54">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="J54">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="K54">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="M54">
-        <v>92</v>
+        <v>267</v>
+      </c>
+      <c r="N54">
+        <v>39</v>
+      </c>
+      <c r="O54">
+        <v>39</v>
+      </c>
+      <c r="P54">
+        <v>38</v>
+      </c>
+      <c r="Q54">
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3103,52 +3385,52 @@
         <v>70</v>
       </c>
       <c r="B55">
-        <v>28</v>
+        <v>244</v>
       </c>
       <c r="C55">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="D55">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="E55">
-        <v>206</v>
+        <v>353</v>
       </c>
       <c r="F55">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="G55">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="H55">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="I55">
-        <v>279</v>
+        <v>380</v>
       </c>
       <c r="J55">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="K55">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="L55">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="M55">
-        <v>185</v>
+        <v>521</v>
       </c>
       <c r="N55">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="O55">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="P55">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="Q55">
-        <v>227</v>
+        <v>516</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3156,40 +3438,52 @@
         <v>71</v>
       </c>
       <c r="B56">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C56">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D56">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E56">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="F56">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G56">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H56">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="J56">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K56">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="M56">
-        <v>90</v>
+        <v>325</v>
+      </c>
+      <c r="N56">
+        <v>6</v>
+      </c>
+      <c r="O56">
+        <v>6</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3197,52 +3491,52 @@
         <v>72</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D57">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E57">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="G57">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="I57">
-        <v>222</v>
+        <v>279</v>
       </c>
       <c r="J57">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K57">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L57">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="N57">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="O57">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="P57">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="Q57">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3250,40 +3544,52 @@
         <v>73</v>
       </c>
       <c r="B58">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C58">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D58">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E58">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="F58">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G58">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H58">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I58">
-        <v>117</v>
+        <v>337</v>
       </c>
       <c r="J58">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K58">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L58">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M58">
-        <v>172</v>
+        <v>427</v>
+      </c>
+      <c r="N58">
+        <v>49</v>
+      </c>
+      <c r="O58">
+        <v>49</v>
+      </c>
+      <c r="P58">
+        <v>48</v>
+      </c>
+      <c r="Q58">
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3291,52 +3597,52 @@
         <v>74</v>
       </c>
       <c r="B59">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C59">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D59">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="E59">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="F59">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G59">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H59">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="I59">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="J59">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="K59">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="L59">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="M59">
-        <v>442</v>
+        <v>278</v>
       </c>
       <c r="N59">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="O59">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Q59">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3344,52 +3650,52 @@
         <v>75</v>
       </c>
       <c r="B60">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C60">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D60">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E60">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F60">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G60">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H60">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I60">
-        <v>372</v>
+        <v>321</v>
       </c>
       <c r="J60">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="K60">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="L60">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="M60">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="N60">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="O60">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="P60">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="Q60">
-        <v>401</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3397,7 +3703,7 @@
         <v>76</v>
       </c>
       <c r="B61">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C61">
         <v>70</v>
@@ -3406,31 +3712,43 @@
         <v>68</v>
       </c>
       <c r="E61">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F61">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G61">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H61">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I61">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="J61">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="K61">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="L61">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="M61">
-        <v>273</v>
+        <v>442</v>
+      </c>
+      <c r="N61">
+        <v>20</v>
+      </c>
+      <c r="O61">
+        <v>20</v>
+      </c>
+      <c r="P61">
+        <v>18</v>
+      </c>
+      <c r="Q61">
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3438,52 +3756,52 @@
         <v>77</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G62">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="N62">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="O62">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3491,40 +3809,40 @@
         <v>78</v>
       </c>
       <c r="B63">
+        <v>70</v>
+      </c>
+      <c r="C63">
+        <v>70</v>
+      </c>
+      <c r="D63">
+        <v>68</v>
+      </c>
+      <c r="E63">
+        <v>174</v>
+      </c>
+      <c r="F63">
+        <v>56</v>
+      </c>
+      <c r="G63">
+        <v>56</v>
+      </c>
+      <c r="H63">
         <v>53</v>
       </c>
-      <c r="C63">
-        <v>53</v>
-      </c>
-      <c r="D63">
-        <v>50</v>
-      </c>
-      <c r="E63">
-        <v>357</v>
-      </c>
-      <c r="F63">
-        <v>28</v>
-      </c>
-      <c r="G63">
-        <v>28</v>
-      </c>
-      <c r="H63">
-        <v>22</v>
-      </c>
       <c r="I63">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="J63">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="K63">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L63">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="M63">
-        <v>160</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -3532,40 +3850,52 @@
         <v>79</v>
       </c>
       <c r="B64">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G64">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H64">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>204</v>
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64">
+        <v>2</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -3573,40 +3903,52 @@
         <v>80</v>
       </c>
       <c r="B65">
+        <v>53</v>
+      </c>
+      <c r="C65">
+        <v>53</v>
+      </c>
+      <c r="D65">
+        <v>50</v>
+      </c>
+      <c r="E65">
+        <v>357</v>
+      </c>
+      <c r="F65">
+        <v>37</v>
+      </c>
+      <c r="G65">
+        <v>37</v>
+      </c>
+      <c r="H65">
+        <v>36</v>
+      </c>
+      <c r="I65">
+        <v>358</v>
+      </c>
+      <c r="J65">
+        <v>36</v>
+      </c>
+      <c r="K65">
+        <v>36</v>
+      </c>
+      <c r="L65">
+        <v>34</v>
+      </c>
+      <c r="M65">
+        <v>212</v>
+      </c>
+      <c r="N65">
+        <v>26</v>
+      </c>
+      <c r="O65">
+        <v>26</v>
+      </c>
+      <c r="P65">
         <v>24</v>
       </c>
-      <c r="C65">
-        <v>24</v>
-      </c>
-      <c r="D65">
-        <v>23</v>
-      </c>
-      <c r="E65">
-        <v>203</v>
-      </c>
-      <c r="F65">
-        <v>36</v>
-      </c>
-      <c r="G65">
-        <v>36</v>
-      </c>
-      <c r="H65">
-        <v>35</v>
-      </c>
-      <c r="I65">
-        <v>197</v>
-      </c>
-      <c r="J65">
-        <v>31</v>
-      </c>
-      <c r="K65">
-        <v>31</v>
-      </c>
-      <c r="L65">
-        <v>30</v>
-      </c>
-      <c r="M65">
-        <v>195</v>
+      <c r="Q65">
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -3614,52 +3956,40 @@
         <v>81</v>
       </c>
       <c r="B66">
+        <v>23</v>
+      </c>
+      <c r="C66">
+        <v>13</v>
+      </c>
+      <c r="D66">
+        <v>12</v>
+      </c>
+      <c r="E66">
+        <v>253</v>
+      </c>
+      <c r="F66">
         <v>15</v>
       </c>
-      <c r="C66">
-        <v>15</v>
-      </c>
-      <c r="D66">
-        <v>14</v>
-      </c>
-      <c r="E66">
-        <v>92</v>
-      </c>
-      <c r="F66">
-        <v>20</v>
-      </c>
       <c r="G66">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H66">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I66">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="J66">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="K66">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="L66">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="M66">
-        <v>280</v>
-      </c>
-      <c r="N66">
-        <v>7</v>
-      </c>
-      <c r="O66">
-        <v>7</v>
-      </c>
-      <c r="P66">
-        <v>6</v>
-      </c>
-      <c r="Q66">
-        <v>137</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -3667,28 +3997,28 @@
         <v>82</v>
       </c>
       <c r="B67">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C67">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D67">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E67">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="F67">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G67">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H67">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I67">
-        <v>281</v>
+        <v>223</v>
       </c>
       <c r="J67">
         <v>44</v>
@@ -3700,19 +4030,19 @@
         <v>43</v>
       </c>
       <c r="M67">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N67">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="O67">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="P67">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q67">
-        <v>255</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -3720,52 +4050,40 @@
         <v>83</v>
       </c>
       <c r="B68">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="C68">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="D68">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="E68">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="F68">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G68">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H68">
+        <v>35</v>
+      </c>
+      <c r="I68">
+        <v>197</v>
+      </c>
+      <c r="J68">
         <v>31</v>
       </c>
-      <c r="I68">
-        <v>249</v>
-      </c>
-      <c r="J68">
-        <v>46</v>
-      </c>
       <c r="K68">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="L68">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M68">
-        <v>205</v>
-      </c>
-      <c r="N68">
-        <v>46</v>
-      </c>
-      <c r="O68">
-        <v>46</v>
-      </c>
-      <c r="P68">
-        <v>45</v>
-      </c>
-      <c r="Q68">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -3773,40 +4091,52 @@
         <v>84</v>
       </c>
       <c r="B69">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C69">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D69">
+        <v>35</v>
+      </c>
+      <c r="E69">
+        <v>298</v>
+      </c>
+      <c r="F69">
+        <v>23</v>
+      </c>
+      <c r="G69">
+        <v>23</v>
+      </c>
+      <c r="H69">
         <v>19</v>
       </c>
-      <c r="E69">
-        <v>136</v>
-      </c>
-      <c r="F69">
-        <v>55</v>
-      </c>
-      <c r="G69">
-        <v>34</v>
-      </c>
-      <c r="H69">
-        <v>22</v>
-      </c>
       <c r="I69">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="J69">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K69">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="L69">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M69">
-        <v>184</v>
+        <v>280</v>
+      </c>
+      <c r="N69">
+        <v>15</v>
+      </c>
+      <c r="O69">
+        <v>15</v>
+      </c>
+      <c r="P69">
+        <v>14</v>
+      </c>
+      <c r="Q69">
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -3814,40 +4144,52 @@
         <v>85</v>
       </c>
       <c r="B70">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C70">
+        <v>23</v>
+      </c>
+      <c r="D70">
+        <v>22</v>
+      </c>
+      <c r="E70">
+        <v>211</v>
+      </c>
+      <c r="F70">
         <v>38</v>
       </c>
-      <c r="D70">
-        <v>36</v>
-      </c>
-      <c r="E70">
-        <v>175</v>
-      </c>
-      <c r="F70">
-        <v>31</v>
-      </c>
       <c r="G70">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I70">
-        <v>352</v>
+        <v>281</v>
       </c>
       <c r="J70">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="K70">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="L70">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="M70">
-        <v>413</v>
+        <v>205</v>
+      </c>
+      <c r="N70">
+        <v>15</v>
+      </c>
+      <c r="O70">
+        <v>15</v>
+      </c>
+      <c r="P70">
+        <v>14</v>
+      </c>
+      <c r="Q70">
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -3855,40 +4197,52 @@
         <v>86</v>
       </c>
       <c r="B71">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="C71">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="D71">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="E71">
-        <v>141</v>
+        <v>238</v>
       </c>
       <c r="F71">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G71">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H71">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I71">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="J71">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K71">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L71">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="M71">
-        <v>271</v>
+        <v>205</v>
+      </c>
+      <c r="N71">
+        <v>46</v>
+      </c>
+      <c r="O71">
+        <v>46</v>
+      </c>
+      <c r="P71">
+        <v>45</v>
+      </c>
+      <c r="Q71">
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -3896,40 +4250,52 @@
         <v>87</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="E72">
-        <v>236</v>
+        <v>454</v>
       </c>
       <c r="F72">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G72">
+        <v>34</v>
+      </c>
+      <c r="H72">
         <v>22</v>
       </c>
-      <c r="H72">
-        <v>20</v>
-      </c>
       <c r="I72">
-        <v>70</v>
+        <v>286</v>
       </c>
       <c r="J72">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K72">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L72">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M72">
-        <v>181</v>
+        <v>281</v>
+      </c>
+      <c r="N72">
+        <v>17</v>
+      </c>
+      <c r="O72">
+        <v>15</v>
+      </c>
+      <c r="P72">
+        <v>13</v>
+      </c>
+      <c r="Q72">
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -3937,52 +4303,52 @@
         <v>88</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="E73">
-        <v>71</v>
+        <v>296</v>
       </c>
       <c r="F73">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G73">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H73">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I73">
-        <v>90</v>
+        <v>369</v>
       </c>
       <c r="J73">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="K73">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="L73">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="M73">
-        <v>134</v>
+        <v>541</v>
       </c>
       <c r="N73">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="O73">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="P73">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="Q73">
-        <v>330</v>
+        <v>630</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -3990,52 +4356,52 @@
         <v>89</v>
       </c>
       <c r="B74">
+        <v>54</v>
+      </c>
+      <c r="C74">
         <v>53</v>
       </c>
-      <c r="C74">
-        <v>39</v>
-      </c>
       <c r="D74">
+        <v>51</v>
+      </c>
+      <c r="E74">
+        <v>219</v>
+      </c>
+      <c r="F74">
+        <v>31</v>
+      </c>
+      <c r="G74">
+        <v>29</v>
+      </c>
+      <c r="H74">
+        <v>27</v>
+      </c>
+      <c r="I74">
+        <v>352</v>
+      </c>
+      <c r="J74">
+        <v>108</v>
+      </c>
+      <c r="K74">
+        <v>90</v>
+      </c>
+      <c r="L74">
+        <v>89</v>
+      </c>
+      <c r="M74">
+        <v>413</v>
+      </c>
+      <c r="N74">
+        <v>38</v>
+      </c>
+      <c r="O74">
+        <v>38</v>
+      </c>
+      <c r="P74">
         <v>36</v>
       </c>
-      <c r="E74">
-        <v>176</v>
-      </c>
-      <c r="F74">
-        <v>40</v>
-      </c>
-      <c r="G74">
-        <v>27</v>
-      </c>
-      <c r="H74">
-        <v>26</v>
-      </c>
-      <c r="I74">
-        <v>378</v>
-      </c>
-      <c r="J74">
-        <v>112</v>
-      </c>
-      <c r="K74">
-        <v>92</v>
-      </c>
-      <c r="L74">
-        <v>92</v>
-      </c>
-      <c r="M74">
-        <v>521</v>
-      </c>
-      <c r="N74">
-        <v>53</v>
-      </c>
-      <c r="O74">
-        <v>21</v>
-      </c>
-      <c r="P74">
-        <v>21</v>
-      </c>
       <c r="Q74">
-        <v>396</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -4043,69 +4409,105 @@
         <v>90</v>
       </c>
       <c r="B75">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C75">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D75">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E75">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="F75">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G75">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H75">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I75">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="J75">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="K75">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="L75">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="M75">
-        <v>524</v>
+        <v>271</v>
+      </c>
+      <c r="N75">
+        <v>20</v>
+      </c>
+      <c r="O75">
+        <v>20</v>
+      </c>
+      <c r="P75">
+        <v>19</v>
+      </c>
+      <c r="Q75">
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>236</v>
+      </c>
       <c r="F76">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="I76">
-        <v>73</v>
+        <v>356</v>
+      </c>
+      <c r="J76">
+        <v>52</v>
+      </c>
+      <c r="K76">
+        <v>49</v>
+      </c>
+      <c r="L76">
+        <v>46</v>
+      </c>
+      <c r="M76">
+        <v>216</v>
       </c>
       <c r="N76">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="P76">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="Q76">
-        <v>207</v>
+        <v>552</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -4113,28 +4515,52 @@
         <v>92</v>
       </c>
       <c r="B77">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>71</v>
+      </c>
+      <c r="F77">
+        <v>14</v>
+      </c>
+      <c r="G77">
+        <v>14</v>
+      </c>
+      <c r="H77">
+        <v>10</v>
+      </c>
+      <c r="I77">
+        <v>90</v>
+      </c>
+      <c r="J77">
+        <v>9</v>
+      </c>
+      <c r="K77">
+        <v>9</v>
+      </c>
+      <c r="L77">
+        <v>7</v>
+      </c>
+      <c r="M77">
+        <v>134</v>
+      </c>
+      <c r="N77">
+        <v>32</v>
+      </c>
+      <c r="O77">
+        <v>32</v>
+      </c>
+      <c r="P77">
         <v>30</v>
       </c>
-      <c r="D77">
-        <v>19</v>
-      </c>
-      <c r="E77">
-        <v>112</v>
-      </c>
-      <c r="F77">
-        <v>12</v>
-      </c>
-      <c r="G77">
-        <v>10</v>
-      </c>
-      <c r="H77">
-        <v>3</v>
-      </c>
-      <c r="I77">
-        <v>20</v>
+      <c r="Q77">
+        <v>330</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -4142,79 +4568,209 @@
         <v>93</v>
       </c>
       <c r="B78">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C78">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D78">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E78">
-        <v>97</v>
+        <v>232</v>
       </c>
       <c r="F78">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G78">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H78">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I78">
-        <v>369</v>
+        <v>378</v>
+      </c>
+      <c r="J78">
+        <v>112</v>
+      </c>
+      <c r="K78">
+        <v>92</v>
+      </c>
+      <c r="L78">
+        <v>92</v>
+      </c>
+      <c r="M78">
+        <v>521</v>
+      </c>
+      <c r="N78">
+        <v>53</v>
+      </c>
+      <c r="O78">
+        <v>21</v>
+      </c>
+      <c r="P78">
+        <v>21</v>
+      </c>
+      <c r="Q78">
+        <v>396</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="B79">
+        <v>37</v>
+      </c>
+      <c r="C79">
+        <v>37</v>
+      </c>
+      <c r="D79">
+        <v>35</v>
+      </c>
+      <c r="E79">
+        <v>172</v>
+      </c>
       <c r="F79">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G79">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H79">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I79">
-        <v>372</v>
+        <v>351</v>
+      </c>
+      <c r="J79">
+        <v>94</v>
+      </c>
+      <c r="K79">
+        <v>94</v>
+      </c>
+      <c r="L79">
+        <v>93</v>
+      </c>
+      <c r="M79">
+        <v>524</v>
+      </c>
+      <c r="N79">
+        <v>29</v>
+      </c>
+      <c r="O79">
+        <v>29</v>
+      </c>
+      <c r="P79">
+        <v>28</v>
+      </c>
+      <c r="Q79">
+        <v>376</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B80">
-        <v>23</v>
-      </c>
-      <c r="C80">
-        <v>13</v>
-      </c>
-      <c r="D80">
-        <v>12</v>
-      </c>
-      <c r="E80">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>2</v>
+      </c>
+      <c r="I80">
+        <v>73</v>
+      </c>
+      <c r="N80">
+        <v>5</v>
+      </c>
+      <c r="O80">
+        <v>5</v>
+      </c>
+      <c r="P80">
+        <v>4</v>
+      </c>
+      <c r="Q80">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B81">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C81">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D81">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E81">
-        <v>191</v>
+        <v>112</v>
+      </c>
+      <c r="F81">
+        <v>12</v>
+      </c>
+      <c r="G81">
+        <v>10</v>
+      </c>
+      <c r="H81">
+        <v>3</v>
+      </c>
+      <c r="I81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F82">
+        <v>38</v>
+      </c>
+      <c r="G82">
+        <v>38</v>
+      </c>
+      <c r="H82">
+        <v>26</v>
+      </c>
+      <c r="I82">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83">
+        <v>99</v>
+      </c>
+      <c r="C83">
+        <v>97</v>
+      </c>
+      <c r="D83">
+        <v>94</v>
+      </c>
+      <c r="E83">
+        <v>126</v>
+      </c>
+      <c r="F83">
+        <v>33</v>
+      </c>
+      <c r="G83">
+        <v>33</v>
+      </c>
+      <c r="H83">
+        <v>32</v>
+      </c>
+      <c r="I83">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
